--- a/TestData/TestData1.xlsx
+++ b/TestData/TestData1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baffc6d4a4435192/Desktop/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon Studio\Katalon Projects\Training-1\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC104890499F75D45BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDCED23-E672-4445-9E7D-F3036653AB25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED208767-9B7A-4A0B-8FC4-B3AACCBCB17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>RAIVpflpDOg=</t>
   </si>
   <si>
-    <t>abc@def.com</t>
-  </si>
-  <si>
     <t>shekar@mail.com</t>
   </si>
   <si>
     <t>Shekar123@</t>
+  </si>
+  <si>
+    <t>123@def.com</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +403,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
